--- a/tools/materials/skill270.xlsx
+++ b/tools/materials/skill270.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\under\Desktop\School Work\Computer Science\4125 - Data Models and Database Systems\gproject\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\under\Desktop\School Work\Computer Science\4125 - Data Models and Database Systems\gproject\tools\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CF4F5-9D02-4065-9E8C-DCF25D5476BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06609BA6-74B0-43FE-9B84-63ED59CCA456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
       <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
